--- a/ozone/ANO-RCC-MB/ozone_165.50/ozone_165.50_energies.xlsx
+++ b/ozone/ANO-RCC-MB/ozone_165.50/ozone_165.50_energies.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0981283236</v>
+        <v>-0.0981266511</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-224.28506484</v>
+        <v>-224.28506485</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-224.38319316</v>
+        <v>-224.3831915</v>
       </c>
     </row>
   </sheetData>
